--- a/data/trans_orig/P37C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023</t>
+          <t>Población según la creencia de si es importante vacunar a los niños/as en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4128,7 +4128,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
